--- a/public/unupload_report/distributor_invlidated_data_report.xlsx
+++ b/public/unupload_report/distributor_invlidated_data_report.xlsx
@@ -94,90 +94,108 @@
     <t>dh0011111</t>
   </si>
   <si>
+    <t>45678</t>
+  </si>
+  <si>
+    <t>abc@agroni.com</t>
+  </si>
+  <si>
+    <t>0167587888</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>1245674</t>
+  </si>
+  <si>
+    <t>454545454</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Banani</t>
+  </si>
+  <si>
+    <t>Dhaks</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ABC XYZ</t>
+  </si>
+  <si>
+    <t>Sales Manager</t>
+  </si>
+  <si>
+    <t>1478789877</t>
+  </si>
+  <si>
+    <t>abcxyz@agroni.com</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Janata</t>
+  </si>
+  <si>
+    <t>dh0021111</t>
+  </si>
+  <si>
+    <t>45679</t>
+  </si>
+  <si>
+    <t>abcagroni.com</t>
+  </si>
+  <si>
+    <t>01675878894</t>
+  </si>
+  <si>
+    <t>1245675</t>
+  </si>
+  <si>
+    <t>dh001</t>
+  </si>
+  <si>
     <t>12345678</t>
   </si>
   <si>
-    <t>abc@agroni.com</t>
-  </si>
-  <si>
-    <t>0167587888</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>1245674</t>
-  </si>
-  <si>
-    <t>454545454</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>Banani</t>
-  </si>
-  <si>
-    <t>Dhaks</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>ABC XYZ</t>
-  </si>
-  <si>
-    <t>Sales Manager</t>
-  </si>
-  <si>
-    <t>1478789877</t>
-  </si>
-  <si>
-    <t>abcxyz@agroni.com</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Janata</t>
-  </si>
-  <si>
-    <t>dh0021111</t>
+    <t>1675878899</t>
+  </si>
+  <si>
+    <t>dh002</t>
   </si>
   <si>
     <t>12345679</t>
   </si>
   <si>
-    <t>01675878894</t>
-  </si>
-  <si>
-    <t>1245675</t>
-  </si>
-  <si>
     <t>Brac</t>
   </si>
   <si>
+    <t>1245676</t>
+  </si>
+  <si>
+    <t>1245677</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>1245679</t>
+  </si>
+  <si>
     <t>01675878895</t>
   </si>
   <si>
-    <t>1245676</t>
-  </si>
-  <si>
     <t>01675878892</t>
   </si>
   <si>
-    <t>1245677</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>01675878891</t>
   </si>
   <si>
-    <t>1245679</t>
-  </si>
-  <si>
     <t>123245678</t>
   </si>
   <si>
@@ -191,24 +209,6 @@
   </si>
   <si>
     <t>123456679</t>
-  </si>
-  <si>
-    <t>dh001</t>
-  </si>
-  <si>
-    <t>1675878899</t>
-  </si>
-  <si>
-    <t>dh002</t>
-  </si>
-  <si>
-    <t>45678</t>
-  </si>
-  <si>
-    <t>abcagroni.com</t>
-  </si>
-  <si>
-    <t>45679</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -447,16 +447,16 @@
         <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>32</v>
@@ -515,25 +515,25 @@
         <v>10084</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>32</v>
@@ -569,7 +569,7 @@
         <v>37</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>7800312878</v>
+        <v>7180622878</v>
       </c>
       <c r="V4" s="0" t="s">
         <v>38</v>
@@ -589,10 +589,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
@@ -601,16 +601,16 @@
         <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>32</v>
@@ -646,7 +646,7 @@
         <v>37</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>7800322878</v>
+        <v>7802222878</v>
       </c>
       <c r="V5" s="0" t="s">
         <v>38</v>
@@ -666,28 +666,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>32</v>
@@ -723,7 +723,7 @@
         <v>37</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>7800222878</v>
+        <v>780022878</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>38</v>
@@ -746,25 +746,25 @@
         <v>10084</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>32</v>
@@ -800,7 +800,7 @@
         <v>37</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>7180622878</v>
+        <v>780022878</v>
       </c>
       <c r="V7" s="0" t="s">
         <v>38</v>
@@ -823,25 +823,25 @@
         <v>10084</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>32</v>
@@ -877,7 +877,7 @@
         <v>37</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>7802222878</v>
+        <v>780022878</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>38</v>
@@ -897,28 +897,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>32</v>
@@ -954,7 +954,7 @@
         <v>37</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>7800312878</v>
+        <v>780022878</v>
       </c>
       <c r="V9" s="0" t="s">
         <v>38</v>
@@ -977,13 +977,13 @@
         <v>10087</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>28</v>
@@ -995,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>32</v>
@@ -1031,7 +1031,7 @@
         <v>37</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>7800322878</v>
+        <v>780022878</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>38</v>
@@ -1051,28 +1051,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>32</v>
@@ -1108,7 +1108,7 @@
         <v>37</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>7800222878</v>
+        <v>7180622878</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>38</v>
@@ -1131,25 +1131,25 @@
         <v>10084</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>32</v>
@@ -1185,7 +1185,7 @@
         <v>37</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>7180622878</v>
+        <v>7802222878</v>
       </c>
       <c r="V12" s="0" t="s">
         <v>38</v>
@@ -1208,25 +1208,25 @@
         <v>10084</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>32</v>
@@ -1262,7 +1262,7 @@
         <v>37</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>7802222878</v>
+        <v>7800312878</v>
       </c>
       <c r="V13" s="0" t="s">
         <v>38</v>
@@ -1282,28 +1282,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>32</v>
@@ -1339,7 +1339,7 @@
         <v>37</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>7800312878</v>
+        <v>7800322878</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>38</v>
@@ -1362,25 +1362,25 @@
         <v>10087</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>32</v>
@@ -1416,7 +1416,7 @@
         <v>37</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>7800322878</v>
+        <v>7800222878</v>
       </c>
       <c r="V15" s="0" t="s">
         <v>38</v>
@@ -1436,28 +1436,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>32</v>
@@ -1493,7 +1493,7 @@
         <v>37</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>7800222878</v>
+        <v>7180622878</v>
       </c>
       <c r="V16" s="0" t="s">
         <v>38</v>
@@ -1516,25 +1516,25 @@
         <v>10084</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>32</v>
@@ -1570,7 +1570,7 @@
         <v>37</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>7180622878</v>
+        <v>7802222878</v>
       </c>
       <c r="V17" s="0" t="s">
         <v>38</v>
@@ -1593,25 +1593,25 @@
         <v>10084</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>32</v>
@@ -1647,7 +1647,7 @@
         <v>37</v>
       </c>
       <c r="U18" s="0" t="n">
-        <v>7802222878</v>
+        <v>7800312878</v>
       </c>
       <c r="V18" s="0" t="s">
         <v>38</v>
@@ -1667,28 +1667,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>32</v>
@@ -1724,7 +1724,7 @@
         <v>37</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>7800312878</v>
+        <v>7800322878</v>
       </c>
       <c r="V19" s="0" t="s">
         <v>38</v>
@@ -1747,25 +1747,25 @@
         <v>10087</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>32</v>
@@ -1801,7 +1801,7 @@
         <v>37</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>7800322878</v>
+        <v>7800222878</v>
       </c>
       <c r="V20" s="0" t="s">
         <v>38</v>
@@ -1821,28 +1821,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>32</v>
@@ -1878,7 +1878,7 @@
         <v>37</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>7800222878</v>
+        <v>7180622878</v>
       </c>
       <c r="V21" s="0" t="s">
         <v>38</v>
@@ -1901,25 +1901,25 @@
         <v>10084</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>32</v>
@@ -1955,7 +1955,7 @@
         <v>37</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>7180622878</v>
+        <v>7802222878</v>
       </c>
       <c r="V22" s="0" t="s">
         <v>38</v>
@@ -1978,25 +1978,25 @@
         <v>10084</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>32</v>
@@ -2032,7 +2032,7 @@
         <v>37</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>780022878</v>
+        <v>7800312878</v>
       </c>
       <c r="V23" s="0" t="s">
         <v>38</v>
@@ -2052,28 +2052,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>32</v>
@@ -2109,7 +2109,7 @@
         <v>37</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>780022878</v>
+        <v>7800322878</v>
       </c>
       <c r="V24" s="0" t="s">
         <v>38</v>
@@ -2129,28 +2129,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>32</v>
@@ -2186,7 +2186,7 @@
         <v>37</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>780022878</v>
+        <v>7800222878</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>38</v>
@@ -2206,28 +2206,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>32</v>
@@ -2263,7 +2263,7 @@
         <v>37</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>780022878</v>
+        <v>7180622878</v>
       </c>
       <c r="V26" s="0" t="s">
         <v>38</v>
@@ -2283,28 +2283,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>32</v>
@@ -2340,7 +2340,7 @@
         <v>37</v>
       </c>
       <c r="U27" s="0" t="n">
-        <v>780022878</v>
+        <v>7802222878</v>
       </c>
       <c r="V27" s="0" t="s">
         <v>38</v>
@@ -2363,25 +2363,25 @@
         <v>10084</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>32</v>
@@ -2417,7 +2417,7 @@
         <v>37</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>7180622878</v>
+        <v>7800312878</v>
       </c>
       <c r="V28" s="0" t="s">
         <v>38</v>
@@ -2437,28 +2437,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>32</v>
@@ -2494,7 +2494,7 @@
         <v>37</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>7180622878</v>
+        <v>7800322878</v>
       </c>
       <c r="V29" s="0" t="s">
         <v>38</v>
@@ -2514,28 +2514,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>32</v>
@@ -2571,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>7180622878</v>
+        <v>7800222878</v>
       </c>
       <c r="V30" s="0" t="s">
         <v>38</v>
@@ -2600,7 +2600,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>28</v>
@@ -2671,25 +2671,25 @@
         <v>10084</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>32</v>
@@ -2725,7 +2725,7 @@
         <v>37</v>
       </c>
       <c r="U32" s="0" t="n">
-        <v>7802222878</v>
+        <v>780022878</v>
       </c>
       <c r="V32" s="0" t="s">
         <v>38</v>
@@ -2748,25 +2748,25 @@
         <v>10084</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>32</v>
@@ -2802,7 +2802,7 @@
         <v>37</v>
       </c>
       <c r="U33" s="0" t="n">
-        <v>7180622878</v>
+        <v>780022878</v>
       </c>
       <c r="V33" s="0" t="s">
         <v>38</v>
@@ -2825,25 +2825,25 @@
         <v>10084</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J34" s="0" t="s">
         <v>32</v>
@@ -2879,7 +2879,7 @@
         <v>37</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>7802222878</v>
+        <v>780022878</v>
       </c>
       <c r="V34" s="0" t="s">
         <v>38</v>
@@ -2899,28 +2899,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>32</v>
@@ -2956,7 +2956,7 @@
         <v>37</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>7180622878</v>
+        <v>780022878</v>
       </c>
       <c r="V35" s="0" t="s">
         <v>38</v>
@@ -2976,28 +2976,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>32</v>
@@ -3033,7 +3033,7 @@
         <v>37</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>7802222878</v>
+        <v>780022878</v>
       </c>
       <c r="V36" s="0" t="s">
         <v>38</v>
@@ -3056,25 +3056,25 @@
         <v>10084</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>32</v>
@@ -3110,7 +3110,7 @@
         <v>37</v>
       </c>
       <c r="U37" s="0" t="n">
-        <v>7800312878</v>
+        <v>7180622878</v>
       </c>
       <c r="V37" s="0" t="s">
         <v>38</v>
@@ -3130,28 +3130,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F38" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J38" s="0" t="s">
         <v>32</v>
@@ -3187,7 +3187,7 @@
         <v>37</v>
       </c>
       <c r="U38" s="0" t="n">
-        <v>7800322878</v>
+        <v>7180622878</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>38</v>
@@ -3207,28 +3207,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>32</v>
@@ -3264,7 +3264,7 @@
         <v>37</v>
       </c>
       <c r="U39" s="0" t="n">
-        <v>7800222878</v>
+        <v>7180622878</v>
       </c>
       <c r="V39" s="0" t="s">
         <v>38</v>
@@ -3293,7 +3293,7 @@
         <v>26</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>28</v>
@@ -3370,19 +3370,19 @@
         <v>43</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>32</v>
@@ -3441,25 +3441,25 @@
         <v>10084</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>32</v>
@@ -3495,7 +3495,7 @@
         <v>37</v>
       </c>
       <c r="U42" s="0" t="n">
-        <v>7800312878</v>
+        <v>7180622878</v>
       </c>
       <c r="V42" s="0" t="s">
         <v>38</v>
@@ -3515,28 +3515,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>32</v>
@@ -3572,7 +3572,7 @@
         <v>37</v>
       </c>
       <c r="U43" s="0" t="n">
-        <v>7800322878</v>
+        <v>7802222878</v>
       </c>
       <c r="V43" s="0" t="s">
         <v>38</v>
@@ -3592,28 +3592,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>32</v>
@@ -3649,7 +3649,7 @@
         <v>37</v>
       </c>
       <c r="U44" s="0" t="n">
-        <v>7800222878</v>
+        <v>7180622878</v>
       </c>
       <c r="V44" s="0" t="s">
         <v>38</v>
@@ -3672,25 +3672,25 @@
         <v>10084</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>32</v>
@@ -3726,7 +3726,7 @@
         <v>37</v>
       </c>
       <c r="U45" s="0" t="n">
-        <v>7180622878</v>
+        <v>7802222878</v>
       </c>
       <c r="V45" s="0" t="s">
         <v>38</v>
@@ -3749,25 +3749,25 @@
         <v>10084</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>32</v>
@@ -3803,7 +3803,7 @@
         <v>37</v>
       </c>
       <c r="U46" s="0" t="n">
-        <v>7802222878</v>
+        <v>7800312878</v>
       </c>
       <c r="V46" s="0" t="s">
         <v>38</v>
@@ -3823,28 +3823,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>32</v>
@@ -3880,7 +3880,7 @@
         <v>37</v>
       </c>
       <c r="U47" s="0" t="n">
-        <v>7800312878</v>
+        <v>7800322878</v>
       </c>
       <c r="V47" s="0" t="s">
         <v>38</v>
@@ -3903,25 +3903,25 @@
         <v>10087</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>32</v>
@@ -3957,7 +3957,7 @@
         <v>37</v>
       </c>
       <c r="U48" s="0" t="n">
-        <v>7800322878</v>
+        <v>7800222878</v>
       </c>
       <c r="V48" s="0" t="s">
         <v>38</v>
@@ -3977,28 +3977,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>10087</v>
+        <v>10084</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F49" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>32</v>
@@ -4034,7 +4034,7 @@
         <v>37</v>
       </c>
       <c r="U49" s="0" t="n">
-        <v>7800222878</v>
+        <v>7180622878</v>
       </c>
       <c r="V49" s="0" t="s">
         <v>38</v>
@@ -4057,25 +4057,25 @@
         <v>10084</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F50" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>32</v>
@@ -4111,7 +4111,7 @@
         <v>37</v>
       </c>
       <c r="U50" s="0" t="n">
-        <v>7180622878</v>
+        <v>7802222878</v>
       </c>
       <c r="V50" s="0" t="s">
         <v>38</v>
@@ -4134,25 +4134,25 @@
         <v>10084</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>32</v>
@@ -4188,7 +4188,7 @@
         <v>37</v>
       </c>
       <c r="U51" s="0" t="n">
-        <v>7180622878</v>
+        <v>7800312878</v>
       </c>
       <c r="V51" s="0" t="s">
         <v>38</v>
@@ -4208,29 +4208,29 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>10084</v>
+        <v>10087</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E52" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="J52" s="0" t="s">
         <v>32</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>37</v>
       </c>
       <c r="U52" s="0" t="n">
-        <v>7180622878</v>
+        <v>7800322878</v>
       </c>
       <c r="V52" s="0" t="s">
         <v>38</v>
@@ -4285,75 +4285,768 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="n">
+        <v>10087</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q53" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <v>7800222878</v>
+      </c>
+      <c r="V53" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W53" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X53" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y53" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="n">
         <v>10084</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D54" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E54" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O54" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q54" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R54" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S54" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T54" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <v>7180622878</v>
+      </c>
+      <c r="V54" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W54" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X54" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y54" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>10084</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <v>7802222878</v>
+      </c>
+      <c r="V55" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W55" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X55" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y55" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" s="0" t="s">
+      <c r="B56" s="0" t="n">
+        <v>10084</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q56" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R56" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <v>7800312878</v>
+      </c>
+      <c r="V56" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W56" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X56" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y56" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>10087</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O57" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P57" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q57" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R57" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T57" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <v>7800322878</v>
+      </c>
+      <c r="V57" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W57" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X57" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y57" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>10087</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O58" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q58" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R58" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T58" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <v>7800222878</v>
+      </c>
+      <c r="V58" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W58" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X58" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y58" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>10084</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" s="0" t="s">
+      <c r="H59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="J53" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>1219</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="P53" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q53" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="R53" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="S53" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T53" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="U53" s="0" t="n">
+      <c r="J59" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O59" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R59" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T59" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U59" s="0" t="n">
         <v>7180622878</v>
       </c>
-      <c r="V53" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="W53" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="X53" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y53" s="0" t="s">
+      <c r="V59" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W59" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X59" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y59" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>10084</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q60" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R60" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T60" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" s="0" t="n">
+        <v>7180622878</v>
+      </c>
+      <c r="V60" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W60" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X60" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y60" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>10084</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q61" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S61" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U61" s="0" t="n">
+        <v>7180622878</v>
+      </c>
+      <c r="V61" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W61" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X61" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y61" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>10084</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O62" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q62" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="T62" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="U62" s="0" t="n">
+        <v>7180622878</v>
+      </c>
+      <c r="V62" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="W62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="X62" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y62" s="0" t="s">
         <v>41</v>
       </c>
     </row>
